--- a/OpenCart-Test Scenarios .xlsx
+++ b/OpenCart-Test Scenarios .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Manual_Testing_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Azar Tamboli</t>
+  </si>
+  <si>
+    <t>FRS and explored OpenCart Web Application</t>
   </si>
 </sst>
 </file>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -810,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C4" s="20"/>
     </row>

--- a/OpenCart-Test Scenarios .xlsx
+++ b/OpenCart-Test Scenarios .xlsx
@@ -774,7 +774,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/OpenCart-Test Scenarios .xlsx
+++ b/OpenCart-Test Scenarios .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Project Name</t>
   </si>
@@ -95,197 +95,98 @@
     <t>TS_012</t>
   </si>
   <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>OpenCart</t>
+  </si>
+  <si>
+    <t>Validate the working of Register Account functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Login functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Logout functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Forgot Password functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Search functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Product Compare functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Add to Cart' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Wish List' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Shopping Cart' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Home Page functionality</t>
+  </si>
+  <si>
+    <t>Validate the complete Application functionality for different currencies</t>
+  </si>
+  <si>
+    <t>Validate the working of Checkout functionality</t>
+  </si>
+  <si>
+    <t>DD-MM-YYYY</t>
+  </si>
+  <si>
+    <t>Azar Tamboli</t>
+  </si>
+  <si>
+    <t>FRS and explored OpenCart Web Application</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Change Password' functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCart </t>
+  </si>
+  <si>
+    <t>Validate the working of Product Display Page functionality</t>
+  </si>
+  <si>
     <t>TS_013</t>
   </si>
   <si>
     <t>TS_014</t>
   </si>
   <si>
-    <t>TS_015</t>
-  </si>
-  <si>
-    <t>TS_016</t>
-  </si>
-  <si>
-    <t>TS_017</t>
-  </si>
-  <si>
-    <t>TS_019</t>
-  </si>
-  <si>
-    <t>TS_020</t>
-  </si>
-  <si>
-    <t>TS_021</t>
-  </si>
-  <si>
-    <t>TS_022</t>
-  </si>
-  <si>
-    <t>TS_023</t>
-  </si>
-  <si>
-    <t>TS_024</t>
-  </si>
-  <si>
-    <t>TS_025</t>
-  </si>
-  <si>
-    <t>TS_026</t>
-  </si>
-  <si>
-    <t>TS_027</t>
-  </si>
-  <si>
-    <t>TS_028</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>TS_029</t>
-  </si>
-  <si>
-    <t>TS_018</t>
-  </si>
-  <si>
-    <t>TS_030</t>
-  </si>
-  <si>
-    <t>OpenCart (Frontend)</t>
-  </si>
-  <si>
-    <t>OpenCart</t>
-  </si>
-  <si>
-    <t>Validate the working of Register Account functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Login functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Logout functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Forgot Password functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Search functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Product Compare functionality</t>
-  </si>
-  <si>
-    <t>Validate the Product Display Page functionality for the different types of Products</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Add to Cart' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Wish List' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Shopping Cart' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of Home Page functionality</t>
-  </si>
-  <si>
-    <t>Validate the My Account functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Account &gt; Account Information functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Account &gt; 'Change Password' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Account &gt; 'Address Book' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Order History' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Order Information' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Product Returns' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Downloads' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Reward Points' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Returned Requests' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Your Transactions' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Recurring Payments' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Affiliate' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Newsletter' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Contact Us' page functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Gift Certificate' page functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Speal Offers' page functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of 'Header' options, 'Menu' options and 'Footer' options</t>
-  </si>
-  <si>
-    <t>Validate the complete Application functionality for different currencies</t>
-  </si>
-  <si>
-    <t>FRS</t>
-  </si>
-  <si>
-    <t>TS_031</t>
-  </si>
-  <si>
-    <t>Validate the working of Checkout functionality</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
-  </si>
-  <si>
-    <t>Azar Tamboli</t>
-  </si>
-  <si>
-    <t>FRS and explored OpenCart Web Application</t>
+    <t>Validate the working of 'Header','Menu' and 'Footer' Options</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,16 +221,21 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -348,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -423,6 +329,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -439,10 +367,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,34 +388,34 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -771,17 +699,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -794,55 +722,61 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="20"/>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>84</v>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="20"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>83</v>
+      <c r="B5" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>82</v>
+      <c r="B6" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>82</v>
+      <c r="B7" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -865,65 +799,65 @@
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
+      <c r="B11" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>79</v>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>79</v>
+      <c r="B13" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
+      <c r="B14" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9">
         <v>25</v>
@@ -933,14 +867,14 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>79</v>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E15" s="9">
         <v>22</v>
@@ -950,14 +884,14 @@
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>79</v>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E16" s="9">
         <v>24</v>
@@ -967,82 +901,82 @@
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>79</v>
+      <c r="B17" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E17" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>79</v>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>79</v>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E19" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>79</v>
+      <c r="B20" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>79</v>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -1052,351 +986,77 @@
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>79</v>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E22" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="E24" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="9">
-        <v>13</v>
+      <c r="E25" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="9">
-        <v>21</v>
-      </c>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="18">
-        <v>3</v>
-      </c>
+      <c r="E27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OpenCart-Test Scenarios .xlsx
+++ b/OpenCart-Test Scenarios .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Project Name</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Validate the working of Checkout functionality</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>Azar Tamboli</t>
@@ -356,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -417,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +702,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="2"/>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="2"/>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="2"/>
@@ -762,8 +762,8 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>43</v>
+      <c r="B6" s="21">
+        <v>45089</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="2"/>
@@ -772,9 +772,7 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="20"/>
       <c r="D7" s="2"/>
     </row>
@@ -800,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
@@ -817,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>32</v>
@@ -834,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>33</v>
@@ -851,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>34</v>
@@ -868,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -885,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>36</v>
@@ -902,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>26</v>
@@ -919,7 +917,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>37</v>
@@ -936,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>38</v>
@@ -953,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>39</v>
@@ -970,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>40</v>
@@ -987,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>42</v>
@@ -1001,13 +999,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>28</v>
@@ -1018,13 +1016,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>27</v>
@@ -1038,7 +1036,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>41</v>
